--- a/emotions/adfes_results_v2.xlsx
+++ b/emotions/adfes_results_v2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\my-study-python\emotions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A063640B-EFF5-463E-A034-6F332E2FAF24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01BB1688-001C-47AF-A72A-85BD8EBA7F1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="19440" windowHeight="14880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1232,8 +1232,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E27E20C-D371-40B3-9903-EE7F5A3A870A}">
   <dimension ref="A1:S108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A56" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L76" sqref="L76"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="18" x14ac:dyDescent="0.4"/>
@@ -1403,7 +1403,7 @@
         <v>Страх</v>
       </c>
       <c r="L3" s="4">
-        <f t="shared" ref="L2:L26" si="4">F3*100</f>
+        <f t="shared" ref="L3:L26" si="4">F3*100</f>
         <v>65.454545454545453</v>
       </c>
       <c r="M3" s="4">
@@ -1411,7 +1411,7 @@
         <v>60.869565217391312</v>
       </c>
       <c r="N3" s="4">
-        <f t="shared" ref="N2:O17" si="6">D3*100</f>
+        <f t="shared" ref="N3:O17" si="6">D3*100</f>
         <v>63.636363636363633</v>
       </c>
       <c r="O3" s="4">
@@ -1419,7 +1419,7 @@
         <v>62.222222222222236</v>
       </c>
       <c r="P3" s="4">
-        <f t="shared" ref="P2:P17" si="7">G3*100</f>
+        <f t="shared" ref="P3:P17" si="7">G3*100</f>
         <v>10.22727272727273</v>
       </c>
       <c r="Q3" s="4">
@@ -3099,7 +3099,7 @@
         <v>Страх</v>
       </c>
       <c r="L36" s="4">
-        <f t="shared" ref="L36:Q40" si="17">AVERAGE(L$7:L$11)</f>
+        <f t="shared" ref="L36:Q39" si="17">AVERAGE(L$7:L$11)</f>
         <v>70.909090909090907</v>
       </c>
       <c r="M36" s="4">
@@ -3264,7 +3264,7 @@
         <v>Страх</v>
       </c>
       <c r="L41" s="4">
-        <f t="shared" ref="L41:Q54" si="19">AVERAGE(L$12:L$16)</f>
+        <f t="shared" ref="L41:Q44" si="19">AVERAGE(L$12:L$16)</f>
         <v>72.727272727272734</v>
       </c>
       <c r="M41" s="4">
@@ -4941,7 +4941,7 @@
     </row>
     <row r="106" spans="12:17" x14ac:dyDescent="0.4">
       <c r="L106" s="3">
-        <f t="shared" si="26"/>
+        <f>L$58-L80</f>
         <v>9.0909090909090935</v>
       </c>
       <c r="M106" s="3">
@@ -5020,7 +5020,7 @@
   </sheetData>
   <autoFilter ref="J57:Q82" xr:uid="{9E27E20C-D371-40B3-9903-EE7F5A3A870A}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="J58:Q82">
-      <sortCondition ref="P57:P82"/>
+      <sortCondition descending="1" ref="L57:L82"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
